--- a/交流管理/git账号管理/git账号.xlsx
+++ b/交流管理/git账号管理/git账号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,49 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baomeijin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋作为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王飞虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尹魏芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinweifang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栾碧霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙潇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伯阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luanbixia</t>
-  </si>
-  <si>
     <t>有无权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,23 +42,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>songxue</t>
+    <t>侯凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宋雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">shen.5109256@qq.com </t>
-  </si>
-  <si>
-    <t>wb-zw227299</t>
-  </si>
-  <si>
-    <t>13136692191@163.com</t>
-  </si>
-  <si>
-    <t>songzuowei_2006@126.com</t>
+    <t>余苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐明曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂正文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏金龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>949385912@qq.com</t>
+  </si>
+  <si>
+    <t>xmx0814@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>759701960@qq.com</t>
+  </si>
+  <si>
+    <t>289781547@qq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2929935194@qq.com </t>
+  </si>
+  <si>
+    <t>282089773@qq.com</t>
+  </si>
+  <si>
+    <t>18792669930@163.com</t>
+  </si>
+  <si>
+    <t>1553167199@qq.com</t>
+  </si>
+  <si>
+    <t>吴登礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmx0814</t>
+  </si>
+  <si>
+    <t>xjl1585</t>
+  </si>
+  <si>
+    <t>songxue001</t>
+  </si>
+  <si>
+    <t>huangxu6735</t>
+  </si>
+  <si>
+    <t>977548166@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnyXiaomingyu</t>
+  </si>
+  <si>
+    <t>houkai123</t>
+  </si>
+  <si>
+    <t>aa598741</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡潇琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382850581@qq.com</t>
+  </si>
+  <si>
+    <t>huxiaoqi567</t>
+  </si>
+  <si>
+    <t>niezhengwen</t>
+  </si>
+  <si>
+    <t>yumiaoly</t>
+  </si>
+  <si>
+    <t>1948317097@qq.com</t>
+  </si>
+  <si>
+    <t>wangjiang199372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -447,18 +503,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,111 +526,181 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/交流管理/git账号管理/git账号.xlsx
+++ b/交流管理/git账号管理/git账号.xlsx
@@ -120,43 +120,45 @@
     <t>songxue001</t>
   </si>
   <si>
+    <t>977548166@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnyXiaomingyu</t>
+  </si>
+  <si>
+    <t>aa598741</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡潇琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382850581@qq.com</t>
+  </si>
+  <si>
+    <t>huxiaoqi567</t>
+  </si>
+  <si>
+    <t>niezhengwen</t>
+  </si>
+  <si>
+    <t>yumiaoly</t>
+  </si>
+  <si>
+    <t>1948317097@qq.com</t>
+  </si>
+  <si>
+    <t>houkai123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjiang1993721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>huangxu6735</t>
-  </si>
-  <si>
-    <t>977548166@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnnyXiaomingyu</t>
-  </si>
-  <si>
-    <t>houkai123</t>
-  </si>
-  <si>
-    <t>aa598741</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡潇琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>382850581@qq.com</t>
-  </si>
-  <si>
-    <t>huxiaoqi567</t>
-  </si>
-  <si>
-    <t>niezhengwen</t>
-  </si>
-  <si>
-    <t>yumiaoly</t>
-  </si>
-  <si>
-    <t>1948317097@qq.com</t>
-  </si>
-  <si>
-    <t>wangjiang199372</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +508,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,10 +542,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -560,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -574,7 +576,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -588,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -602,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -627,10 +629,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -658,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -677,13 +679,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
